--- a/data/trans_dic/P25_1-Urba-trans_dic.xlsx
+++ b/data/trans_dic/P25_1-Urba-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,12 +527,15 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que padece diabetes/azúcar alta en sangre/azúcar en orina</t>
+          <t>Población que padece diabetes/azúcar alta en sangre/azúcar en orina (tasa de respuesta: 99,94%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -542,20 +546,23 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -577,32 +584,47 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -618,6 +640,9 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +657,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>7,94%</t>
+          <t>2,78%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>7,82%</t>
+          <t>4,2%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>7,74%</t>
+          <t>4,48%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>4,87%</t>
+          <t>6,08%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>4,35%</t>
+          <t>4,0%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>5,39%</t>
+          <t>3,54%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>6,29%</t>
+          <t>4,12%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>5,94%</t>
+          <t>6,18%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>6,51%</t>
+          <t>3,44%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>3,85%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>4,29%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>6,13%</t>
         </is>
       </c>
     </row>
@@ -685,47 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>5,34; 11,61</t>
+          <t>0,98; 5,89</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>5,33; 11,43</t>
+          <t>1,94; 7,87</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>5,23; 11,3</t>
+          <t>2,07; 7,8</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>3,01; 8,25</t>
+          <t>3,14; 10,38</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>2,68; 7,34</t>
+          <t>1,85; 8,0</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>3,38; 9,16</t>
+          <t>1,56; 6,81</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>4,64; 8,53</t>
+          <t>1,69; 8,39</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>4,4; 8,03</t>
+          <t>2,81; 11,52</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>4,78; 8,83</t>
+          <t>1,82; 5,82</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>2,18; 6,16</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>2,55; 6,88</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>3,86; 9,47</t>
         </is>
       </c>
     </row>
@@ -742,47 +797,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>6,8%</t>
+          <t>7,08%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>5,33%</t>
+          <t>5,9%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>5,16%</t>
+          <t>5,64%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>5,76%</t>
+          <t>9,19%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>4,22%</t>
+          <t>3,73%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>6,05%</t>
+          <t>2,22%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>6,25%</t>
+          <t>3,05%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>4,77%</t>
+          <t>4,72%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>5,61%</t>
+          <t>5,27%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>4,0%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>4,32%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>6,9%</t>
         </is>
       </c>
     </row>
@@ -795,47 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>4,1; 10,45</t>
+          <t>3,43; 12,36</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>3,25; 8,47</t>
+          <t>2,73; 10,16</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>3,18; 8,07</t>
+          <t>2,73; 10,13</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>3,26; 8,73</t>
+          <t>4,79; 15,4</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>2,36; 7,04</t>
+          <t>1,47; 7,75</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>3,38; 9,2</t>
+          <t>0,56; 5,86</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>4,43; 8,53</t>
+          <t>1,05; 7,34</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>3,28; 6,73</t>
+          <t>1,99; 10,37</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>3,97; 7,87</t>
+          <t>3,1; 8,5</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>2,21; 6,54</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>2,6; 7,03</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>4,2; 10,93</t>
         </is>
       </c>
     </row>
@@ -852,47 +937,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>7,86%</t>
+          <t>8,83%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>7,33%</t>
+          <t>7,93%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>7,35%</t>
+          <t>7,98%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>8,21%</t>
+          <t>10,68%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>7,82%</t>
+          <t>7,42%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>11,85%</t>
+          <t>6,11%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>8,02%</t>
+          <t>7,1%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>7,57%</t>
+          <t>8,53%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>9,46%</t>
+          <t>8,15%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>7,01%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>7,55%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>9,65%</t>
         </is>
       </c>
     </row>
@@ -905,47 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>2,75; 16,7</t>
+          <t>2,04; 24,18</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>2,18; 16,25</t>
+          <t>1,99; 24,48</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>2,36; 16,95</t>
+          <t>1,84; 24,48</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>2,9; 17,47</t>
+          <t>2,38; 26,57</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>2,45; 16,99</t>
+          <t>0,0; 22,34</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>5,12; 22,8</t>
+          <t>0,0; 20,55</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>3,89; 13,93</t>
+          <t>0,0; 22,68</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>3,58; 13,56</t>
+          <t>0,0; 27,18</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>5,16; 15,88</t>
+          <t>2,87; 18,55</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>2,37; 16,51</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>2,51; 17,77</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>3,78; 21,28</t>
         </is>
       </c>
     </row>
@@ -962,47 +1077,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>7,47%</t>
+          <t>5,2%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>6,74%</t>
+          <t>5,3%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>6,65%</t>
+          <t>5,33%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>5,55%</t>
+          <t>7,83%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>4,65%</t>
+          <t>4,21%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>6,32%</t>
+          <t>3,26%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>6,46%</t>
+          <t>3,98%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>5,65%</t>
+          <t>5,84%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>6,48%</t>
+          <t>4,67%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>4,23%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>4,64%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>6,81%</t>
         </is>
       </c>
     </row>
@@ -1015,60 +1145,1081 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>5,46; 9,75</t>
+          <t>3,1; 8,07</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>4,81; 8,74</t>
+          <t>3,3; 8,08</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>4,86; 8,81</t>
+          <t>3,31; 8,16</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>3,91; 7,49</t>
+          <t>5,17; 11,27</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>3,32; 6,54</t>
+          <t>2,42; 6,78</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>4,49; 8,65</t>
+          <t>1,93; 5,72</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>5,15; 7,96</t>
+          <t>2,38; 6,94</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>4,38; 6,96</t>
+          <t>3,72; 9,51</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>5,31; 7,97</t>
+          <t>3,24; 6,47</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>2,97; 5,81</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>3,33; 6,38</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>4,9; 9,13</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="K1:N1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que padece diabetes/azúcar alta en sangre/azúcar en orina (tasa de respuesta: 99,94%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Urbano</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>11952</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>15386</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>17058</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>31368</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>20268</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>14914</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>16770</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>34819</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>32220</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>30300</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>33828</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>66187</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>4229; 25349</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>7100; 28801</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>7882; 29720</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>16184; 53567</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>9373; 40506</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>6554; 28677</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>6892; 34173</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>15846; 64916</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>17055; 54484</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>17177; 48530</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>20106; 54218</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>41724; 102286</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Intermedio</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>25442</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>18769</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>18185</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>37880</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>15876</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>7525</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>10227</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>20431</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>41318</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>26294</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>28412</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>58311</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>12340; 44412</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>8678; 32340</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>8810; 32694</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>19746; 63490</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>6240; 32945</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>1888; 19843</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>3509; 24580</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>8615; 44911</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>24290; 66718</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>14532; 42949</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>17078; 46255</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>35535; 92440</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Rural</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>8987</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>6316</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>6826</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>12755</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>7167</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>4987</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>5864</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>9503</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>16154</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>11303</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>12690</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>22258</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>2074; 24608</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>1587; 19486</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>1573; 20954</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>2846; 31725</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>0; 21570</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>0; 16761</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>0; 18725</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>0; 30266</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>5696; 36789</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>3817; 26614</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>4216; 29884</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>8732; 49110</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>33.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>33.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>35.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>45.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>46380</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>40472</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>42069</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>82003</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>43311</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>27425</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>32862</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>64753</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>89692</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>67897</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>74930</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>146756</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>27658; 71913</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>25190; 61727</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>26084; 64349</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>54193; 118095</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>24882; 69726</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>16205; 48114</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>19642; 57277</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>41255; 105389</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>62092; 124094</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>47606; 93279</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>53706; 103027</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>105714; 196762</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
